--- a/src/Project_01.xlsx
+++ b/src/Project_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchoi/Desktop/teamProject/01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09D1D88-229F-FC4F-BC91-54568E3180FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB924249-B8EF-BA49-92AA-027DB5EEBF39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25400" yWindow="7100" windowWidth="23740" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="1380" windowWidth="28100" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="140">
   <si>
     <t>Member</t>
   </si>
@@ -511,6 +511,26 @@
   </si>
   <si>
     <t>varchar2(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 전체 대여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 책바구니 도서 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) 책바구니 비우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) 뒤로가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J7" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="D36:H37"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1693,8 +1713,8 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" t="s">
-        <v>121</v>
+      <c r="Q21" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1729,8 +1749,8 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>124</v>
+      <c r="Q22" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1772,7 +1792,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="Q23" s="19" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1802,8 +1822,8 @@
       <c r="H24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>101</v>
+      <c r="Q24" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1830,6 +1850,9 @@
       </c>
       <c r="H25" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="P25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1857,27 +1880,24 @@
       <c r="H26" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="Q26" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>11</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" t="s">
-        <v>105</v>
-      </c>
-      <c r="O28" t="s">
-        <v>106</v>
-      </c>
-      <c r="S28" t="s">
-        <v>107</v>
+      <c r="Q28" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -1905,10 +1925,6 @@
       <c r="H29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="P29" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="13" t="s">
@@ -1935,10 +1951,6 @@
       <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="P30" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="4" t="s">
@@ -1965,10 +1977,6 @@
       <c r="H31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="Q31" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="4" t="s">
@@ -1995,12 +2003,8 @@
       <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="Q32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -2025,12 +2029,8 @@
       <c r="H33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="Q33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
@@ -2055,12 +2055,8 @@
       <c r="H34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="Q34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="17" t="s">
         <v>33</v>
       </c>
@@ -2085,33 +2081,21 @@
       <c r="H35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="P35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="Q36" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="R36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="H36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="Q37" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -2136,12 +2120,8 @@
       <c r="H38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="Q38" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="13" t="s">
         <v>8</v>
       </c>
@@ -2166,12 +2146,8 @@
       <c r="H39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="P39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -2196,33 +2172,18 @@
       <c r="H40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q40" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q42" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2210,7 @@
       </c>
       <c r="Q43" s="19"/>
     </row>
-    <row r="44" spans="1:18" ht="18" customHeight="1">
+    <row r="44" spans="1:19" ht="18" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>81</v>
       </c>
@@ -2280,7 +2241,7 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
     </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1">
+    <row r="45" spans="1:19" ht="18" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2311,7 +2272,7 @@
       <c r="P45" s="20"/>
       <c r="Q45" s="20"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
         <v>33</v>
       </c>
@@ -2337,17 +2298,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19">
       <c r="A48" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="K48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48" t="s">
+        <v>106</v>
+      </c>
+      <c r="S48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="10" t="s">
         <v>1</v>
       </c>
@@ -2372,8 +2345,12 @@
       <c r="H49" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="K49" s="6"/>
+      <c r="P49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="21" t="s">
         <v>131</v>
       </c>
@@ -2394,8 +2371,12 @@
       </c>
       <c r="G50" s="23"/>
       <c r="H50" s="24"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50" s="6"/>
+      <c r="P50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="7"/>
       <c r="B51" s="25" t="s">
         <v>132</v>
@@ -2412,6 +2393,82 @@
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
+      <c r="K51" s="6"/>
+      <c r="Q51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="K52" s="6"/>
+      <c r="Q52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="K53" s="6"/>
+      <c r="Q53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="K54" s="6"/>
+      <c r="Q54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="K55" s="6"/>
+      <c r="P55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="K56" s="6"/>
+      <c r="Q56" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="R56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="K57" s="6"/>
+      <c r="Q57" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="K58" s="6"/>
+      <c r="Q58" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="K59" s="6"/>
+      <c r="P59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="K60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L60" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="Q61" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="Q62" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
